--- a/app/config/tables/complex_validate_test/forms/complex_validate_test/complex_validate_test.xlsx
+++ b/app/config/tables/complex_validate_test/forms/complex_validate_test/complex_validate_test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="2320" windowWidth="25820" windowHeight="15060" activeTab="2"/>
+    <workbookView xWindow="5904" yWindow="2317" windowWidth="25815" windowHeight="15055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>display.title.hindi</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -422,6 +422,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -469,7 +472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +507,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -719,23 +722,23 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="7" width="18.36328125" customWidth="1"/>
-    <col min="8" max="8" width="28.6328125" customWidth="1"/>
-    <col min="9" max="15" width="18.36328125" customWidth="1"/>
-    <col min="16" max="16" width="24.1796875" customWidth="1"/>
-    <col min="17" max="17" width="18.36328125" customWidth="1"/>
-    <col min="18" max="18" width="25.81640625" customWidth="1"/>
+    <col min="1" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="24.21875" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -783,160 +786,160 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
       <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
         <v>69</v>
-      </c>
-      <c r="I17" t="s">
-        <v>70</v>
       </c>
       <c r="R17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -957,28 +960,28 @@
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="33.6328125" customWidth="1"/>
-    <col min="9" max="9" width="25.1796875" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" customWidth="1"/>
+    <col min="1" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="13" width="13.6328125" customWidth="1"/>
-    <col min="14" max="14" width="20.36328125" customWidth="1"/>
-    <col min="15" max="15" width="30.1796875" customWidth="1"/>
-    <col min="16" max="16" width="33.6328125" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" customWidth="1"/>
-    <col min="18" max="18" width="16.453125" customWidth="1"/>
-    <col min="19" max="19" width="15.81640625" customWidth="1"/>
+    <col min="12" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.21875" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1026,111 +1029,111 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
         <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>81</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
         <v>71</v>
       </c>
-      <c r="O3" t="s">
-        <v>72</v>
-      </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
         <v>73</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>74</v>
       </c>
-      <c r="P4" t="s">
-        <v>75</v>
-      </c>
       <c r="R4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
         <v>82</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>83</v>
-      </c>
-      <c r="I5" t="s">
-        <v>84</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>86</v>
       </c>
-      <c r="P5" t="s">
-        <v>87</v>
-      </c>
       <c r="R5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1147,28 +1150,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="15.36328125" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" customWidth="1"/>
-    <col min="9" max="13" width="15.36328125" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
-    <col min="15" max="16" width="34.6328125" customWidth="1"/>
-    <col min="17" max="17" width="15.36328125" customWidth="1"/>
-    <col min="18" max="18" width="16.453125" customWidth="1"/>
-    <col min="19" max="19" width="15.36328125" customWidth="1"/>
+    <col min="1" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.21875" customWidth="1"/>
+    <col min="9" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" customWidth="1"/>
+    <col min="15" max="16" width="34.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1216,44 +1219,44 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
         <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
         <v>98</v>
       </c>
-      <c r="H3" t="s">
-        <v>99</v>
-      </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1274,12 +1277,12 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1293,46 +1296,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1349,20 +1352,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="7" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="7" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1382,21 +1385,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4">
         <v>20130808</v>
@@ -1406,49 +1409,49 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
         <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1456,24 +1459,24 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/complex_validate_test/forms/complex_validate_test/complex_validate_test.xlsx
+++ b/app/config/tables/complex_validate_test/forms/complex_validate_test/complex_validate_test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5904" yWindow="2317" windowWidth="25815" windowHeight="15055" activeTab="4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>comments</t>
   </si>
@@ -49,27 +49,12 @@
     <t>display.text.hindi</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.hint.hindi</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
-    <t>constraint_message.hindi</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
@@ -88,12 +73,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
-    <t>display.title.hindi</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -332,12 +311,45 @@
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.title.text.hindi</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text.hindi</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.prompt.image</t>
+  </si>
+  <si>
+    <t>display.hint.text.hindi</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text.hindi</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.locale.text</t>
+  </si>
+  <si>
+    <t>display.locale.text.hindi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,6 +517,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -540,6 +569,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -718,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -727,8 +773,12 @@
     <col min="1" max="2" width="31.44140625" customWidth="1"/>
     <col min="3" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="24.21875" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" customWidth="1"/>
+    <col min="12" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="27.88671875" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" customWidth="1"/>
     <col min="17" max="17" width="18.33203125" customWidth="1"/>
     <col min="18" max="18" width="25.77734375" customWidth="1"/>
   </cols>
@@ -738,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -756,57 +806,57 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
@@ -814,23 +864,23 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
@@ -838,18 +888,18 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
@@ -857,23 +907,23 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="R11" t="b">
         <v>1</v>
@@ -881,23 +931,23 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="R14" t="b">
         <v>1</v>
@@ -905,23 +955,23 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="R17" t="b">
         <v>1</v>
@@ -929,17 +979,17 @@
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -956,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -967,7 +1017,8 @@
     <col min="9" max="9" width="25.21875" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="13" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" customWidth="1"/>
     <col min="15" max="15" width="30.21875" customWidth="1"/>
     <col min="16" max="16" width="33.6640625" customWidth="1"/>
@@ -981,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -999,51 +1050,51 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -1051,89 +1102,89 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="R3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1151,14 +1202,18 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="27.21875" customWidth="1"/>
-    <col min="9" max="13" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="19.21875" customWidth="1"/>
     <col min="15" max="16" width="34.6640625" customWidth="1"/>
     <col min="17" max="17" width="15.33203125" customWidth="1"/>
@@ -1171,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1189,51 +1244,51 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -1241,22 +1296,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1284,10 +1339,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
@@ -1298,44 +1353,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1408,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1367,30 +1422,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1399,7 +1454,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>20130808</v>
@@ -1411,72 +1466,72 @@
     </row>
     <row r="4" spans="1:6" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/complex_validate_test/forms/complex_validate_test/complex_validate_test.xlsx
+++ b/app/config/tables/complex_validate_test/forms/complex_validate_test/complex_validate_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5904" yWindow="2317" windowWidth="25815" windowHeight="15055" activeTab="4"/>
+    <workbookView xWindow="5904" yWindow="2317" windowWidth="25815" windowHeight="15055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="105">
   <si>
     <t>comments</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>display.text.hindi</t>
   </si>
   <si>
     <t>required</t>
@@ -788,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -806,57 +800,57 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
@@ -864,23 +858,23 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
@@ -888,18 +882,18 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
@@ -907,23 +901,23 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R11" t="b">
         <v>1</v>
@@ -931,23 +925,23 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R14" t="b">
         <v>1</v>
@@ -955,23 +949,23 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R17" t="b">
         <v>1</v>
@@ -979,17 +973,17 @@
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1050,51 +1044,51 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -1102,89 +1096,89 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s">
         <v>65</v>
       </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s">
-        <v>67</v>
-      </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
         <v>74</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s">
         <v>77</v>
       </c>
-      <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="s">
-        <v>79</v>
-      </c>
       <c r="R5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1244,51 +1238,51 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -1296,22 +1290,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
         <v>88</v>
       </c>
-      <c r="G3" t="s">
-        <v>90</v>
-      </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1328,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1339,58 +1333,58 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1422,30 +1416,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1454,7 +1448,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>20130808</v>
@@ -1466,72 +1460,72 @@
     </row>
     <row r="4" spans="1:6" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/complex_validate_test/forms/complex_validate_test/complex_validate_test.xlsx
+++ b/app/config/tables/complex_validate_test/forms/complex_validate_test/complex_validate_test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE8D57-1584-4918-9607-DC91E5C0B2CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5904" yWindow="2317" windowWidth="25815" windowHeight="15055" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -76,9 +77,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>hindi</t>
-  </si>
-  <si>
     <t>Hindi</t>
   </si>
   <si>
@@ -310,40 +308,43 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>display.title.text.hindi</t>
-  </si>
-  <si>
-    <t>display.constraint_message.text.hindi</t>
-  </si>
-  <si>
     <t>display.constraint_message.text</t>
   </si>
   <si>
     <t>display.prompt.image</t>
   </si>
   <si>
-    <t>display.hint.text.hindi</t>
-  </si>
-  <si>
     <t>display.hint.text</t>
   </si>
   <si>
-    <t>display.prompt.text.hindi</t>
-  </si>
-  <si>
     <t>display.prompt.text</t>
   </si>
   <si>
     <t>display.locale.text</t>
   </si>
   <si>
-    <t>display.locale.text.hindi</t>
+    <t>display.title.text.hi</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>display.locale.text.hi</t>
+  </si>
+  <si>
+    <t>display.prompt.text.hi</t>
+  </si>
+  <si>
+    <t>display.hint.text.hi</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text.hi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,14 +756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="31.44140625" customWidth="1"/>
     <col min="3" max="7" width="18.33203125" customWidth="1"/>
@@ -782,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -800,19 +801,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
@@ -821,169 +822,169 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
         <v>59</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
       </c>
       <c r="R17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" ht="15" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -997,14 +998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="33.6640625" customWidth="1"/>
@@ -1026,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1044,19 +1045,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
@@ -1065,30 +1066,30 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
         <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -1096,89 +1097,89 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
         <v>63</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>64</v>
       </c>
-      <c r="P4" t="s">
-        <v>65</v>
-      </c>
       <c r="R4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
         <v>72</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>73</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
         <v>75</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>76</v>
       </c>
-      <c r="P5" t="s">
-        <v>77</v>
-      </c>
       <c r="R5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1192,14 +1193,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="27.21875" customWidth="1"/>
@@ -1220,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1238,19 +1239,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
@@ -1259,53 +1260,53 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
-        <v>89</v>
-      </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1319,14 +1320,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="24" customWidth="1"/>
   </cols>
@@ -1339,52 +1340,52 @@
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1398,14 +1399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
@@ -1422,31 +1423,31 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1458,44 +1459,44 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="17.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1511,21 +1512,21 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
